--- a/Análise/Requisitos FinControl.xlsx
+++ b/Análise/Requisitos FinControl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\OneDrive\Desktop\FinControl\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6EC17B-7D0F-4A4A-97D3-E4D4B5F23756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B371A07-AA63-4637-BC10-965CFEDB23BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C96DDF0F-579A-4E40-86CB-42D8607A64D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -282,6 +282,45 @@
   </si>
   <si>
     <t>O banco de dados deve ser feito em MYSQL</t>
+  </si>
+  <si>
+    <t>Cadastrar Usuário</t>
+  </si>
+  <si>
+    <t>Efetuar Login</t>
+  </si>
+  <si>
+    <t>Manter Receitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter Despesas </t>
+  </si>
+  <si>
+    <t>Manter Dívidas</t>
+  </si>
+  <si>
+    <t>Manter Metas</t>
+  </si>
+  <si>
+    <t>Alterar Alocação</t>
+  </si>
+  <si>
+    <t>Visualizar Notícias</t>
+  </si>
+  <si>
+    <t>Visualizar Alocação Padrão</t>
+  </si>
+  <si>
+    <t>Alocar Receitas</t>
+  </si>
+  <si>
+    <t>Visualizar Gráficos Despesas</t>
+  </si>
+  <si>
+    <t>Visualizar Gráficos Divisões</t>
+  </si>
+  <si>
+    <t>Converter Cambio</t>
   </si>
 </sst>
 </file>
@@ -319,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +374,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -385,13 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -401,6 +457,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +805,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G15" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,16 +813,16 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -781,7 +848,9 @@
       <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -793,7 +862,9 @@
       <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -805,7 +876,9 @@
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -817,7 +890,9 @@
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -829,7 +904,9 @@
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -841,7 +918,9 @@
       <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -853,7 +932,9 @@
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -865,7 +946,9 @@
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -877,7 +960,9 @@
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -889,7 +974,9 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -901,7 +988,9 @@
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -913,7 +1002,9 @@
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -925,7 +1016,9 @@
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -937,7 +1030,9 @@
       <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -949,7 +1044,9 @@
       <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -961,7 +1058,9 @@
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -973,7 +1072,9 @@
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -985,7 +1086,9 @@
       <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -997,7 +1100,9 @@
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1009,7 +1114,9 @@
       <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1021,78 +1128,80 @@
       <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1103,23 +1212,23 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Análise/Requisitos FinControl.xlsx
+++ b/Análise/Requisitos FinControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\OneDrive\Desktop\FinControl\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B371A07-AA63-4637-BC10-965CFEDB23BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20297ADF-0C60-4DEF-8500-C21A7D74ECF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C96DDF0F-579A-4E40-86CB-42D8607A64D7}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -448,9 +448,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,11 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,12 +816,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -876,7 +875,7 @@
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -890,7 +889,7 @@
       <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -904,7 +903,7 @@
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -918,7 +917,7 @@
       <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -932,7 +931,7 @@
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -946,7 +945,7 @@
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -960,7 +959,7 @@
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -974,7 +973,7 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -988,7 +987,7 @@
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1002,7 +1001,7 @@
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1016,7 +1015,7 @@
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1030,7 +1029,7 @@
       <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1086,7 +1085,7 @@
       <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1100,7 +1099,7 @@
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1133,71 +1132,71 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,23 +1211,23 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
